--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3383051.75558843</v>
+        <v>3380675.128641065</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>319.035539214614</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -713,7 +713,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.27659234081882</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>22.91161418083028</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866092</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319708</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.8127283073657</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432653</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254279</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986493</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877862</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.923604942954</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.923604942954</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.923604942954</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>1154.923604942954</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9377001533464</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918766</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.923604942954</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4401,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
@@ -4416,19 +4416,19 @@
         <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.897187706548</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>547.9610047786412</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>397.8443653663054</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>249.9312717839123</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>103.0413242860019</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>103.0413242860019</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>103.0413242860019</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.327782578335</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.338231680318</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.5456525367878</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.153177427444</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.010132800342</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.153177427444</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>196.9593607670917</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1403.301950067057</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1403.301950067057</v>
+        <v>896.0145465323093</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.884780030097</v>
+        <v>606.5973764953487</v>
       </c>
       <c r="X7" t="n">
-        <v>885.8952291320793</v>
+        <v>378.6078255973314</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.1026499885492</v>
+        <v>378.6078255973314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033213</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.267718213984</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860772</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860772</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.418441703684</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442238</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,16 +6783,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,16 +7081,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056852</v>
       </c>
       <c r="O3" t="n">
-        <v>168.743458178064</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.9574215632814</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991722</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.8462122726487e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.177809982</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,40 +26424,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707394</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707371</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707432</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707425</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>6897.424496707377</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707366</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707422</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695352</v>
+        <v>-600661.6899695348</v>
       </c>
       <c r="C6" t="n">
         <v>514090.0936063848</v>
       </c>
       <c r="D6" t="n">
-        <v>514090.0936063853</v>
+        <v>514090.0936063847</v>
       </c>
       <c r="E6" t="n">
-        <v>110926.5437758448</v>
+        <v>110891.8058504092</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003908</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="H6" t="n">
-        <v>618411.9854003908</v>
+        <v>618377.2474749556</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003908</v>
+        <v>618377.2474749546</v>
       </c>
       <c r="J6" t="n">
-        <v>450806.8075904084</v>
+        <v>450772.0696649732</v>
       </c>
       <c r="K6" t="n">
-        <v>618411.985400391</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="L6" t="n">
-        <v>618411.9854003907</v>
+        <v>618377.247474955</v>
       </c>
       <c r="M6" t="n">
-        <v>485804.6916714641</v>
+        <v>485769.9537460284</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.9854003906</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003907</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.9854003907</v>
+        <v>618377.2474749552</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>92.51216355833998</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>53.52000286308174</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>342.3612775901773</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362456</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.7879678454308</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>55.41442581383487</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446785</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>50.70941963095893</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770852</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.169238832108</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723591</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229398</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,22 +34784,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>520.9482342985592</v>
       </c>
       <c r="O3" t="n">
-        <v>504.168140174187</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580289</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.2318036396065</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
